--- a/data/w4_govind_flies.xlsx
+++ b/data/w4_govind_flies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorfrench/Dropbox/Old_Mac/School_Stuff/CUNY/teaching/dss_2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16A3882-E3FE-8F49-AC7D-D849B8F2D8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEAD324-F081-6042-BEDF-561A47A74712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35180" yWindow="660" windowWidth="27640" windowHeight="15600" xr2:uid="{ECBFBCD9-D75C-5744-9FB5-E373C06AE4D7}"/>
+    <workbookView xWindow="340" yWindow="1240" windowWidth="27640" windowHeight="15600" xr2:uid="{ECBFBCD9-D75C-5744-9FB5-E373C06AE4D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
